--- a/Excel2MaiMLProtocol/INPUT/excel/エクセル説明.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/excel/エクセル説明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kibakun/Documents/GitHub/2024start/Excel2MaiML2/setting/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiML/MaiML/Excel2MaiMLProtocol/INPUT/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E78F0EC8-70C3-0147-B550-7BB31D328269}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69E006-FDF4-2D45-83D5-2A759CD24270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【入力エクセルの説明】" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="191">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -1691,32 +1691,6 @@
     </rPh>
     <rPh sb="47" eb="49">
       <t>セッテイ</t>
-    </rPh>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
-    <t>汎用データコンテナの&lt;name&gt;要素の値を記載する。
-記載がない場合の出力MaiMLデータは、タグのみ（&lt;name&gt;&lt;/name&gt;）設定される。</t>
-    <rPh sb="0" eb="2">
-      <t>ハンヨウ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>ヨウソ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>キサイ</t>
-    </rPh>
-    <rPh sb="32" eb="34">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="35" eb="37">
-      <t>シュテゥ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4560,46 +4534,46 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA22D-BE93-FD48-8E6E-15BF7383CE53}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="X32" sqref="X32"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.33203125" defaultRowHeight="14"/>
   <sheetData>
     <row r="1" spans="1:4" ht="17">
       <c r="A1" s="105" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="15" customHeight="1">
       <c r="B3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15" customHeight="1">
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="15" customHeight="1">
       <c r="C5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15" customHeight="1">
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15" customHeight="1"/>
     <row r="8" spans="1:4" ht="15" customHeight="1">
       <c r="B8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15" customHeight="1">
       <c r="C9" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15" customHeight="1">
@@ -4620,7 +4594,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" customHeight="1">
       <c r="C14" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D14" t="s">
         <v>41</v>
@@ -4628,7 +4602,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" customHeight="1">
       <c r="C15" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D15" t="s">
         <v>57</v>
@@ -4636,10 +4610,10 @@
     </row>
     <row r="16" spans="1:4" ht="15" customHeight="1">
       <c r="C16" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="17" spans="3:5" ht="15" customHeight="1">
@@ -4649,7 +4623,7 @@
     </row>
     <row r="18" spans="3:5" ht="15" customHeight="1">
       <c r="C18" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D18" t="s">
         <v>42</v>
@@ -4657,7 +4631,7 @@
     </row>
     <row r="19" spans="3:5" ht="15" customHeight="1">
       <c r="C19" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
@@ -4665,10 +4639,10 @@
     </row>
     <row r="20" spans="3:5" ht="15" customHeight="1">
       <c r="C20" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="21" spans="3:5" ht="15" customHeight="1">
@@ -4678,7 +4652,7 @@
     </row>
     <row r="22" spans="3:5" ht="15" customHeight="1">
       <c r="C22" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
@@ -4686,7 +4660,7 @@
     </row>
     <row r="23" spans="3:5" ht="15" customHeight="1">
       <c r="C23" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D23" t="s">
         <v>45</v>
@@ -4694,7 +4668,7 @@
     </row>
     <row r="24" spans="3:5" ht="15" customHeight="1">
       <c r="C24" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" t="s">
         <v>55</v>
@@ -4707,7 +4681,7 @@
     </row>
     <row r="26" spans="3:5" ht="15" customHeight="1">
       <c r="C26" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D26" t="s">
         <v>48</v>
@@ -4730,7 +4704,7 @@
     </row>
     <row r="30" spans="3:5" ht="15" customHeight="1">
       <c r="C30" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D30" t="s">
         <v>45</v>
@@ -4738,7 +4712,7 @@
     </row>
     <row r="31" spans="3:5" ht="15" customHeight="1">
       <c r="C31" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D31" t="s">
         <v>54</v>
@@ -4751,7 +4725,7 @@
     </row>
     <row r="33" spans="2:5" ht="15" customHeight="1">
       <c r="C33" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D33" t="s">
         <v>52</v>
@@ -4759,7 +4733,7 @@
     </row>
     <row r="34" spans="2:5" ht="15" customHeight="1">
       <c r="C34" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D34" t="s">
         <v>53</v>
@@ -4767,10 +4741,10 @@
     </row>
     <row r="35" spans="2:5" ht="15" customHeight="1">
       <c r="D35" s="106" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E35" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:5" ht="15" customHeight="1">
@@ -4778,17 +4752,17 @@
     </row>
     <row r="37" spans="2:5" ht="15" customHeight="1">
       <c r="B37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="2:5" ht="15" customHeight="1">
       <c r="B38" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:5" ht="15" customHeight="1">
       <c r="C39" s="107" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:5" ht="15" customHeight="1">
@@ -4808,7 +4782,7 @@
     </row>
     <row r="43" spans="2:5" ht="15" customHeight="1">
       <c r="B43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:5" ht="15" customHeight="1">
@@ -4990,7 +4964,7 @@
         <v>1</v>
       </c>
       <c r="J15" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="91" customHeight="1">
@@ -4998,7 +4972,7 @@
         <v>34</v>
       </c>
       <c r="B16" s="41" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C16" s="41" t="s">
         <v>61</v>
@@ -5054,7 +5028,7 @@
         <v>3</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="91" customHeight="1">
@@ -5086,7 +5060,7 @@
         <v>4</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="91" customHeight="1">
@@ -5118,7 +5092,7 @@
         <v>5</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="91" customHeight="1" thickBot="1">
@@ -5150,12 +5124,12 @@
         <v>6</v>
       </c>
       <c r="J20" s="47" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22" spans="1:10" customFormat="1" ht="56" customHeight="1">
       <c r="A22" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B22" s="74" t="s">
         <v>102</v>
@@ -5164,19 +5138,19 @@
         <v>103</v>
       </c>
       <c r="D22" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="E22" s="76" t="s">
-        <v>167</v>
-      </c>
       <c r="F22" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" s="76" t="s">
         <v>93</v>
       </c>
       <c r="H22" s="76" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -5198,7 +5172,7 @@
   </sheetPr>
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -5230,7 +5204,7 @@
         <v>15</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H1" s="15" t="s">
         <v>26</v>
@@ -5348,7 +5322,7 @@
         <v>15</v>
       </c>
       <c r="G14" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H14" s="64" t="s">
         <v>26</v>
@@ -5357,7 +5331,7 @@
         <v>1</v>
       </c>
       <c r="J14" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="90">
@@ -5365,7 +5339,7 @@
         <v>27</v>
       </c>
       <c r="B15" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C15" s="41" t="s">
         <v>74</v>
@@ -5421,7 +5395,7 @@
         <v>3</v>
       </c>
       <c r="J16" s="47" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="82" customHeight="1">
@@ -5444,7 +5418,7 @@
         <v>79</v>
       </c>
       <c r="G17" s="71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H17" s="72" t="s">
         <v>62</v>
@@ -5453,7 +5427,7 @@
         <v>4</v>
       </c>
       <c r="J17" s="47" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="82" customHeight="1">
@@ -5476,7 +5450,7 @@
         <v>80</v>
       </c>
       <c r="G18" s="71" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H18" s="72" t="s">
         <v>62</v>
@@ -5485,7 +5459,7 @@
         <v>5</v>
       </c>
       <c r="J18" s="47" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="90" customHeight="1">
@@ -5517,12 +5491,12 @@
         <v>6</v>
       </c>
       <c r="J19" s="47" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="61" customHeight="1">
       <c r="A21" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B21" s="74" t="s">
         <v>102</v>
@@ -5531,19 +5505,19 @@
         <v>103</v>
       </c>
       <c r="D21" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E21" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="E21" s="76" t="s">
-        <v>167</v>
-      </c>
       <c r="F21" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" s="76" t="s">
         <v>104</v>
       </c>
       <c r="H21" s="76" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -5675,7 +5649,7 @@
         <v>1</v>
       </c>
       <c r="H14" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="89" customHeight="1">
@@ -5701,7 +5675,7 @@
         <v>2</v>
       </c>
       <c r="H15" s="67" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="89" customHeight="1">
@@ -5727,7 +5701,7 @@
         <v>3</v>
       </c>
       <c r="H16" s="67" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="89" customHeight="1">
@@ -5753,7 +5727,7 @@
         <v>4</v>
       </c>
       <c r="H17" s="67" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -5767,7 +5741,7 @@
     </row>
     <row r="19" spans="1:8" ht="30">
       <c r="A19" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B19" s="74" t="s">
         <v>102</v>
@@ -5779,10 +5753,10 @@
         <v>107</v>
       </c>
       <c r="E19" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="F19" s="76" t="s">
         <v>166</v>
-      </c>
-      <c r="F19" s="76" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -5925,7 +5899,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="90">
@@ -5933,7 +5907,7 @@
         <v>110</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C13" s="62" t="s">
         <v>117</v>
@@ -5954,7 +5928,7 @@
         <v>2</v>
       </c>
       <c r="I13" s="47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="45">
@@ -5983,7 +5957,7 @@
         <v>3</v>
       </c>
       <c r="I14" s="47" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="45">
@@ -6012,30 +5986,30 @@
         <v>4</v>
       </c>
       <c r="I15" s="47" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30">
       <c r="A17" s="75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>102</v>
       </c>
       <c r="C17" s="76" t="s">
+        <v>169</v>
+      </c>
+      <c r="D17" s="76" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" s="76" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="D17" s="76" t="s">
-        <v>166</v>
-      </c>
-      <c r="E17" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="F17" s="76" t="s">
+      <c r="G17" s="76" t="s">
         <v>171</v>
-      </c>
-      <c r="G17" s="76" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -6054,10 +6028,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="25.1640625" defaultRowHeight="14"/>
@@ -6066,12 +6040,12 @@
     <col min="7" max="7" width="25.1640625" style="98"/>
     <col min="8" max="10" width="25.1640625" style="93"/>
     <col min="11" max="11" width="25.1640625" style="97"/>
-    <col min="12" max="13" width="25.1640625" style="93"/>
-    <col min="14" max="14" width="5.83203125" style="84" customWidth="1"/>
-    <col min="15" max="16384" width="25.1640625" style="84"/>
+    <col min="12" max="12" width="25.1640625" style="93"/>
+    <col min="13" max="13" width="5.83203125" style="84" customWidth="1"/>
+    <col min="14" max="16384" width="25.1640625" style="84"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="24" customHeight="1">
+    <row r="1" spans="1:14" ht="24" customHeight="1">
       <c r="A1" s="81" t="s">
         <v>0</v>
       </c>
@@ -6106,13 +6080,10 @@
         <v>10</v>
       </c>
       <c r="L1" s="81" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="81" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="24" customHeight="1">
+    <row r="2" spans="1:14" ht="24" customHeight="1">
       <c r="A2" s="85"/>
       <c r="B2" s="86"/>
       <c r="C2" s="85"/>
@@ -6125,9 +6096,8 @@
       <c r="J2" s="90"/>
       <c r="K2" s="91"/>
       <c r="L2" s="90"/>
-      <c r="M2" s="90"/>
-    </row>
-    <row r="10" spans="1:15">
+    </row>
+    <row r="10" spans="1:14">
       <c r="A10" s="92" t="s">
         <v>60</v>
       </c>
@@ -6137,9 +6107,8 @@
       <c r="J10" s="84"/>
       <c r="K10" s="84"/>
       <c r="L10" s="84"/>
-      <c r="M10" s="84"/>
-    </row>
-    <row r="11" spans="1:15">
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="94" t="s">
         <v>94</v>
       </c>
@@ -6174,13 +6143,10 @@
         <v>97</v>
       </c>
       <c r="L11" s="94" t="s">
-        <v>98</v>
-      </c>
-      <c r="M11" s="94" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="24" customHeight="1">
+    <row r="12" spans="1:14" ht="24" customHeight="1">
       <c r="A12" s="81" t="s">
         <v>0</v>
       </c>
@@ -6215,21 +6181,18 @@
         <v>10</v>
       </c>
       <c r="L12" s="101" t="s">
-        <v>11</v>
-      </c>
-      <c r="M12" s="101" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="92">
+      <c r="M12" s="92">
         <v>1</v>
       </c>
-      <c r="O12" s="46" t="s">
+      <c r="N12" s="46" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="126" customHeight="1">
+    <row r="13" spans="1:14" ht="126" customHeight="1">
       <c r="A13" s="95" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B13" s="95" t="s">
         <v>124</v>
@@ -6256,33 +6219,30 @@
         <v>134</v>
       </c>
       <c r="J13" s="104" t="s">
+        <v>136</v>
+      </c>
+      <c r="K13" s="65" t="s">
         <v>137</v>
-      </c>
-      <c r="K13" s="65" t="s">
-        <v>138</v>
       </c>
       <c r="L13" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="M13" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="N13" s="92">
+      <c r="M13" s="92">
         <v>2</v>
       </c>
-      <c r="O13" s="47" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="N13" s="47" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="F14" s="98"/>
       <c r="G14" s="93"/>
       <c r="J14" s="97"/>
       <c r="K14" s="93"/>
-      <c r="M14" s="84"/>
-      <c r="N14" s="93"/>
-    </row>
-    <row r="15" spans="1:15" ht="54" customHeight="1">
+      <c r="L14" s="84"/>
+      <c r="M14" s="93"/>
+    </row>
+    <row r="15" spans="1:14" ht="54" customHeight="1">
       <c r="A15" s="76" t="s">
         <v>122</v>
       </c>
@@ -6296,37 +6256,34 @@
         <v>128</v>
       </c>
       <c r="E15" s="76" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F15" s="76" t="s">
+        <v>159</v>
+      </c>
+      <c r="G15" s="76" t="s">
         <v>160</v>
       </c>
-      <c r="G15" s="76" t="s">
+      <c r="H15" s="76" t="s">
         <v>161</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="I15" s="76" t="s">
         <v>162</v>
       </c>
-      <c r="I15" s="76" t="s">
+      <c r="J15" s="76" t="s">
         <v>163</v>
       </c>
-      <c r="J15" s="76" t="s">
+      <c r="K15" s="76" t="s">
         <v>164</v>
-      </c>
-      <c r="K15" s="76" t="s">
-        <v>165</v>
       </c>
       <c r="L15" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="M15" s="76" t="s">
-        <v>167</v>
-      </c>
-      <c r="O15" s="96" t="s">
+      <c r="N15" s="96" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:14">
       <c r="G16" s="93"/>
     </row>
     <row r="17" spans="1:7">
@@ -6337,12 +6294,12 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="93" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="93" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>

--- a/Excel2MaiMLProtocol/INPUT/excel/エクセル説明.xlsx
+++ b/Excel2MaiMLProtocol/INPUT/excel/エクセル説明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiML/MaiML/Excel2MaiMLProtocol/INPUT/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Expansion/現在進行形/90_PublicGithub/MaiMLFileHandlingPtograms/Excel2DocandProtocolofMaiML/INPUT/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE69E006-FDF4-2D45-83D5-2A759CD24270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F18B1398-90A5-E74E-B622-C2B99515DBC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12400" yWindow="2460" windowWidth="37900" windowHeight="25240" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="【入力エクセルの説明】" sheetId="7" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="401" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="196">
   <si>
     <t>TEMPLATEID</t>
   </si>
@@ -3401,6 +3401,122 @@
     </rPh>
     <rPh sb="37" eb="39">
       <t>キサイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;materialTemplate&gt;要素の&lt;uuid&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="18" eb="20">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="43" eb="45">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t xml:space="preserve">チガ </t>
+    </rPh>
+    <rPh sb="65" eb="67">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;conditionTemplate&gt;要素の&lt;uuid&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="19" eb="21">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="64" eb="65">
+      <t xml:space="preserve">チガ </t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>&lt;resultTemplate&gt;要素の&lt;uuid&gt;要素の値を記載する。
+記載がない場合の出力MaiMLデータにはデフォルト値が設定される。</t>
+    <rPh sb="16" eb="18">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="41" eb="43">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="44" eb="46">
+      <t>シュテゥ</t>
+    </rPh>
+    <rPh sb="61" eb="62">
+      <t xml:space="preserve">チガ </t>
+    </rPh>
+    <rPh sb="63" eb="65">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>UUID列は0または1列記載可能</t>
+    <rPh sb="4" eb="5">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>レテゥ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キサイ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カノ</t>
     </rPh>
     <phoneticPr fontId="3"/>
   </si>
@@ -4534,7 +4650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{043FA22D-BE93-FD48-8E6E-15BF7383CE53}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <selection activeCell="AF27" sqref="AF27"/>
     </sheetView>
   </sheetViews>
@@ -5775,19 +5891,19 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="26.6640625" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="7" width="26.6640625" style="3"/>
-    <col min="8" max="8" width="8.6640625" customWidth="1"/>
+    <col min="1" max="8" width="26.6640625" style="3"/>
+    <col min="9" max="9" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="17.25" customHeight="1">
+    <row r="1" spans="1:10" ht="17.25" customHeight="1">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -5795,224 +5911,246 @@
         <v>13</v>
       </c>
       <c r="C1" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="D1" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="G1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.25" customHeight="1">
+    <row r="2" spans="1:10" ht="17.25" customHeight="1">
       <c r="A2" s="4" t="s">
         <v>109</v>
       </c>
       <c r="B2" s="2"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:9" ht="17.25" customHeight="1">
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:10" ht="17.25" customHeight="1">
       <c r="A3" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" ht="17.25" customHeight="1">
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:10" ht="17.25" customHeight="1">
       <c r="A4" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
+      <c r="H4" s="2"/>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="40" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" s="45" t="s">
         <v>94</v>
       </c>
       <c r="B11" s="45" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="45" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45" t="s">
         <v>96</v>
       </c>
-      <c r="D11" s="45" t="s">
+      <c r="E11" s="45" t="s">
         <v>97</v>
       </c>
-      <c r="E11" s="45" t="s">
+      <c r="F11" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="G11" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="G11" s="45" t="s">
+      <c r="H11" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="H11" s="45"/>
-      <c r="I11" s="22"/>
-    </row>
-    <row r="12" spans="1:9" ht="15">
+      <c r="I11" s="45"/>
+      <c r="J11" s="22"/>
+    </row>
+    <row r="12" spans="1:10" ht="15">
       <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="79" t="s">
+        <v>191</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D12" s="8" t="s">
+      <c r="E12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F12" s="79" t="s">
+      <c r="G12" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="80" t="s">
+      <c r="H12" s="80" t="s">
         <v>16</v>
       </c>
-      <c r="H12" s="40">
+      <c r="I12" s="40">
         <v>1</v>
       </c>
-      <c r="I12" s="46" t="s">
+      <c r="J12" s="46" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="90">
+    <row r="13" spans="1:10" ht="90">
       <c r="A13" s="52" t="s">
         <v>110</v>
       </c>
       <c r="B13" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="C13" s="62" t="s">
+      <c r="C13" s="41" t="s">
+        <v>192</v>
+      </c>
+      <c r="D13" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="D13" s="41" t="s">
+      <c r="E13" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="F13" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="F13" s="78" t="s">
+      <c r="G13" s="78" t="s">
         <v>113</v>
       </c>
-      <c r="G13" s="65" t="s">
+      <c r="H13" s="65" t="s">
         <v>116</v>
       </c>
-      <c r="H13" s="40">
+      <c r="I13" s="40">
         <v>2</v>
       </c>
-      <c r="I13" s="47" t="s">
+      <c r="J13" s="47" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="45">
+    <row r="14" spans="1:10" ht="60">
       <c r="A14" s="52" t="s">
         <v>18</v>
       </c>
       <c r="B14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="C14" s="62" t="s">
-        <v>114</v>
-      </c>
-      <c r="D14" s="41" t="s">
+      <c r="C14" s="41" t="s">
+        <v>193</v>
+      </c>
+      <c r="D14" s="62" t="s">
         <v>114</v>
       </c>
       <c r="E14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="F14" s="78" t="s">
+      <c r="F14" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="G14" s="65" t="s">
+      <c r="G14" s="78" t="s">
         <v>114</v>
       </c>
-      <c r="H14" s="40">
+      <c r="H14" s="65" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" s="40">
         <v>3</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="J14" s="47" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45">
+    <row r="15" spans="1:10" ht="60">
       <c r="A15" s="52" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="C15" s="62" t="s">
-        <v>115</v>
-      </c>
-      <c r="D15" s="41" t="s">
+      <c r="C15" s="41" t="s">
+        <v>194</v>
+      </c>
+      <c r="D15" s="62" t="s">
         <v>115</v>
       </c>
       <c r="E15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="F15" s="78" t="s">
+      <c r="F15" s="41" t="s">
         <v>115</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="78" t="s">
         <v>115</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="65" t="s">
+        <v>115</v>
+      </c>
+      <c r="I15" s="40">
         <v>4</v>
       </c>
-      <c r="I15" s="47" t="s">
+      <c r="J15" s="47" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="30">
+    <row r="17" spans="1:8" ht="30">
       <c r="A17" s="75" t="s">
         <v>158</v>
       </c>
       <c r="B17" s="74" t="s">
         <v>102</v>
       </c>
-      <c r="C17" s="76" t="s">
+      <c r="C17" s="74" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="76" t="s">
         <v>169</v>
       </c>
-      <c r="D17" s="76" t="s">
+      <c r="E17" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="E17" s="76" t="s">
+      <c r="F17" s="76" t="s">
         <v>166</v>
       </c>
-      <c r="F17" s="76" t="s">
+      <c r="G17" s="76" t="s">
         <v>170</v>
       </c>
-      <c r="G17" s="76" t="s">
+      <c r="H17" s="76" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:8">
       <c r="A19" s="3" t="s">
         <v>105</v>
       </c>
